--- a/data/question_autodiag_v27012026.xlsx
+++ b/data/question_autodiag_v27012026.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.guillemotonia\AppData\Local\Box\Box Edit\Documents\TsoPAHAJEE2gXvaPzph1VQ==\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1FFCDD-035E-4F2E-8E33-BAE2905F9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VREV 27012026" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="VREV 27012026" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,19 +28,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="L19" authorId="0">
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Gaëlle TETARD:
@@ -45,78 +52,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="115">
-  <si>
-    <t xml:space="preserve">Numero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reponses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TexteTheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition_affichage_theme_Si_Gestion du littoral_coché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Reconstituer les ressources naturelles pour l’avenir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 Retrouver partout de l’eau en quantité et de bonne qualité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire suit-il de manière régulière les prélèvements et usages de l’eau (domestiques, agricoles, industriels) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas du tout;En réflexion;En place; Avancé; Je ne sais pas; Non concerné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maturite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les ressources naturelles constituent le ciment de notre qualité de vie et de l’attractivité du territoire. Depuis quelques décennies, la prise de conscience de notre influence sur l’environnement a conduit à faire évoluer nos activités humaines pour en diminuer l’impact. Si quelques succès sont à compter, l’état des ressources naturelles continue à être préoccupant dans son ensemble.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="117">
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Remplace</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Objectif</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Reponses</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Affichage</t>
+  </si>
+  <si>
+    <t>Choix</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>TexteTheme</t>
+  </si>
+  <si>
+    <t>Condition_affichage_theme_Si_Gestion du littoral_coché</t>
+  </si>
+  <si>
+    <t>1. Reconstituer les ressources naturelles pour l’avenir</t>
+  </si>
+  <si>
+    <t>1.1 Retrouver partout de l’eau en quantité et de bonne qualité</t>
+  </si>
+  <si>
+    <t>Le territoire suit-il de manière régulière les prélèvements et usages de l’eau (domestiques, agricoles, industriels) ?</t>
+  </si>
+  <si>
+    <t>Pas du tout;En réflexion;En place; Avancé; Je ne sais pas; Non concerné</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>Maturite</t>
+  </si>
+  <si>
+    <t>Les ressources naturelles constituent le ciment de notre qualité de vie et de l’attractivité du territoire. Depuis quelques décennies, la prise de conscience de notre influence sur l’environnement a conduit à faire évoluer nos activités humaines pour en diminuer l’impact. Si quelques succès sont à compter, l’état des ressources naturelles continue à être préoccupant dans son ensemble.
 Déjà en 2019, la Nouvelle-Aquitaine avait fait de cette ambition sur les ressources naturelles le cœur de sa feuille de route. Quatre ans plus tard, l’analyse de l’urgence est toujours la même, et même davantage en raison de l’augmentation des impacts du réchauffement climatique, du stress hydrique, de l’érosion de la biodiversité. 
 Que ce soit pour l’énergie, l’eau ou encore la biomasse : dans un monde de ressources naturelles finies, l’objectif régional est avant tout de consommer moins. Cela passera par des actions de sobriété, d’efficacité et si nécessaire de substitution pour privilégier le recours à des matières biosourcées et gérées durablement ou recyclées et réemployées.</t>
   </si>
@@ -124,98 +131,98 @@
     <t xml:space="preserve">Des actions concrètes de sobriété et d’efficacité dans l’usage de l’eau sont-elles mises en œuvre (collectivités, entreprises, agriculture, habitants) ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Une gouvernance locale et concertée de l’eau est-elle opérationnelle (SAGE, PTGE, animation multi-acteurs) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire agit-il pour préserver et restaurer les milieux aquatiques et zones humides ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 Reconquérir la biodiversité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les réservoirs de biodiversité et les corridors écologiques à enjeux sont-ils identifiés, protégés et intégrés dans les documents de planification et projets locaux ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas obligatoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions sont-elles menées pour restaurer la biodiversité et les sols (renaturation, pratiques agricoles ou forestières favorables, limitation de l’artificialisation) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 Garantir une énergie décarbonée accessible à toutes et tous</t>
+    <t>Une gouvernance locale et concertée de l’eau est-elle opérationnelle (SAGE, PTGE, animation multi-acteurs) ?</t>
+  </si>
+  <si>
+    <t>Le territoire agit-il pour préserver et restaurer les milieux aquatiques et zones humides ?</t>
+  </si>
+  <si>
+    <t>1.2 Reconquérir la biodiversité</t>
+  </si>
+  <si>
+    <t>Les réservoirs de biodiversité et les corridors écologiques à enjeux sont-ils identifiés, protégés et intégrés dans les documents de planification et projets locaux ?</t>
+  </si>
+  <si>
+    <t>Pas obligatoire</t>
+  </si>
+  <si>
+    <t>Des actions sont-elles menées pour restaurer la biodiversité et les sols (renaturation, pratiques agricoles ou forestières favorables, limitation de l’artificialisation) ?</t>
+  </si>
+  <si>
+    <t>1.3 Garantir une énergie décarbonée accessible à toutes et tous</t>
   </si>
   <si>
     <t xml:space="preserve">Le territoire agit-il sur la sobriété des usages et la rénovation énergétique des bâtiments ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Des projets d’énergies renouvelables sont-ils développés ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 Réduire l’empreinte humaine : éco-conception et réduction des déchets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire met-il en œuvre une politique ambitieuse de prévention des déchets et de valorisation matière, avec une trajectoire de réduction mesurable ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obligatoire</t>
+    <t>Des projets d’énergies renouvelables sont-ils développés ?</t>
+  </si>
+  <si>
+    <t>1.4 Réduire l’empreinte humaine : éco-conception et réduction des déchets</t>
+  </si>
+  <si>
+    <t>Le territoire met-il en œuvre une politique ambitieuse de prévention des déchets et de valorisation matière, avec une trajectoire de réduction mesurable ?</t>
+  </si>
+  <si>
+    <t>obligatoire</t>
   </si>
   <si>
     <t xml:space="preserve">Les acteurs économiques sont-ils accompagnés vers l’éco-conception, le réemploi, l’économie circulaire et l’usage de matériaux biosourcés ou recyclés ? </t>
   </si>
   <si>
-    <t xml:space="preserve">2. Ancrer les solidarités au cœur des transitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 Encourager la persévérance scolaire et relancer l’ascenseur social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire agit-il pour maintenir ou développer une offre éducative et de formation de proximité (lycées, enseignement supérieur, formations professionnalisantes) accessible à tous les publics ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accompagnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Face au défi des enjeux de la transition, le risque d’une aggravation de la pauvreté est grand. La Région veut encourager jeunes et moins jeunes, à travers ses politiques de formation, et relancer l’ascenseur social. Il s’agit aussi de tous se mobiliser, à travers une meilleure connaissance des événements climatiques et d’un nouveau récit partagé.
+    <t>2. Ancrer les solidarités au cœur des transitions</t>
+  </si>
+  <si>
+    <t>2.1 Encourager la persévérance scolaire et relancer l’ascenseur social</t>
+  </si>
+  <si>
+    <t>Le territoire agit-il pour maintenir ou développer une offre éducative et de formation de proximité (lycées, enseignement supérieur, formations professionnalisantes) accessible à tous les publics ?</t>
+  </si>
+  <si>
+    <t>Accompagnement</t>
+  </si>
+  <si>
+    <t>Face au défi des enjeux de la transition, le risque d’une aggravation de la pauvreté est grand. La Région veut encourager jeunes et moins jeunes, à travers ses politiques de formation, et relancer l’ascenseur social. Il s’agit aussi de tous se mobiliser, à travers une meilleure connaissance des événements climatiques et d’un nouveau récit partagé.
 780 000 Néo-Aquitains vivent sous le seuil de pauvreté selon le rapport du CESER : «Pauvreté en Nouvelle- Aquitaine : enrayer la fabrique ! », publié en mars 2023. Depuis 2019, les crises des gilets jaunes, puis la crise sociale consécutive à l’inflation en 2023, montrent l’absolue nécessité d’une approche transversale : la transition sera solidaire, ou ne sera pas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Des actions ciblées sont-elles mises en œuvre pour encourager la poursuite d’études et la persévérance scolaire des jeunes éloignés géographiquement ou socialement, y compris les jeunes en situation de handicap ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire soutient-t-il concrètement les conditions de vie des lycéens et étudiants (logement, alimentation, bien-être, lien social, développement durable) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des dispositifs existent-ils pour prévenir et répondre rapidement aux situations de précarité étudiante (aides d’urgence, lutte contre la précarité alimentaire et numérique) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 Allier inclusion et transitions dans les parcours de formation professionnelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les publics les plus éloignés de l’emploi bénéficient-ils d’un accompagnement renforcé vers la formation et la qualification (savoirs fondamentaux, lutte contre l’illettrisme et l’illectronisme) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire favorise-t-il l’égalité d’accès à la formation et à l’emploi (handicap, égalité femmes-hommes, lutte contre les discriminations) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 Écrire ensemble un nouveau récit pour une justice sociale et environnementale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des formations et parcours professionnels sont-ils développés pour répondre aux métiers et compétences liés aux transitions écologiques, énergétiques, numériques et sociales ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les entreprises et acteurs économiques sont-ils impliqués dans le développement des compétences (entreprises apprenantes, formation en situation de travail, reconversion professionnelle) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire soutient-il la diffusion de la culture scientifique, climatique et environnementale et l’accès à une information fiable pour éclairer les décisions publiques et citoyennes ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les citoyens, bénéficiaires et acteurs locaux sont-ils associés à la co-construction des politiques publiques ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Se nourrir : accélérer les transitions agroécologiques et alimentaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 Étendre l’agroécologie à l’ensemble des exploitations agricoles et susciter des vocations</t>
+    <t>Des actions ciblées sont-elles mises en œuvre pour encourager la poursuite d’études et la persévérance scolaire des jeunes éloignés géographiquement ou socialement, y compris les jeunes en situation de handicap ?</t>
+  </si>
+  <si>
+    <t>Le territoire soutient-t-il concrètement les conditions de vie des lycéens et étudiants (logement, alimentation, bien-être, lien social, développement durable) ?</t>
+  </si>
+  <si>
+    <t>Des dispositifs existent-ils pour prévenir et répondre rapidement aux situations de précarité étudiante (aides d’urgence, lutte contre la précarité alimentaire et numérique) ?</t>
+  </si>
+  <si>
+    <t>2.2 Allier inclusion et transitions dans les parcours de formation professionnelle</t>
+  </si>
+  <si>
+    <t>Les publics les plus éloignés de l’emploi bénéficient-ils d’un accompagnement renforcé vers la formation et la qualification (savoirs fondamentaux, lutte contre l’illettrisme et l’illectronisme) ?</t>
+  </si>
+  <si>
+    <t>Le territoire favorise-t-il l’égalité d’accès à la formation et à l’emploi (handicap, égalité femmes-hommes, lutte contre les discriminations) ?</t>
+  </si>
+  <si>
+    <t>2.3 Écrire ensemble un nouveau récit pour une justice sociale et environnementale</t>
+  </si>
+  <si>
+    <t>Des formations et parcours professionnels sont-ils développés pour répondre aux métiers et compétences liés aux transitions écologiques, énergétiques, numériques et sociales ?</t>
+  </si>
+  <si>
+    <t>Les entreprises et acteurs économiques sont-ils impliqués dans le développement des compétences (entreprises apprenantes, formation en situation de travail, reconversion professionnelle) ?</t>
+  </si>
+  <si>
+    <t>Le territoire soutient-il la diffusion de la culture scientifique, climatique et environnementale et l’accès à une information fiable pour éclairer les décisions publiques et citoyennes ?</t>
+  </si>
+  <si>
+    <t>Les citoyens, bénéficiaires et acteurs locaux sont-ils associés à la co-construction des politiques publiques ?</t>
+  </si>
+  <si>
+    <t>3. Se nourrir : accélérer les transitions agroécologiques et alimentaires</t>
+  </si>
+  <si>
+    <t>3.1 Étendre l’agroécologie à l’ensemble des exploitations agricoles et susciter des vocations</t>
   </si>
   <si>
     <t xml:space="preserve">Le territoire soutient-il la transformation de la filière vers des pratiques agroécologiques ? </t>
@@ -225,61 +232,61 @@
 Les changements de pratiques vers l’agroécologie doivent être faits en visant un maintien du potentiel de production et une alimentation saine et locale. Tous ces mouvements du secteur passeront aussi par un développement de la recherche et de l’innovation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Des mesures ou dispositifs existent-ils pour éviter le recours aux pesticides de synthèse (formation, recherche, expérimentation, développement d’une gouvernance collective, financement…) ?</t>
+    <t>Des mesures ou dispositifs existent-ils pour éviter le recours aux pesticides de synthèse (formation, recherche, expérimentation, développement d’une gouvernance collective, financement…) ?</t>
   </si>
   <si>
     <t xml:space="preserve">Des initiatives favorisent-elles la sobriété dans les usages de l’eau ou la réutilisation de la ressource (réut) </t>
   </si>
   <si>
-    <t xml:space="preserve">Des pratiques agricoles sont-elles mises en place pour stocker du carbone ou produire de l’énergie décarbonée (maintien de prairie, infrastructures agroécologiques, méthanisation, production d’énergies renouvelables) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des initiatives sont-elles portées et soutenues pour améliorer la qualité de vie, la reconnaissance du métier d’agriculteur ? (aide à la transmission des exploitations, égalité femme/homme, travail sur les conditions de travail, le bien-être et la valorisation) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 Transformer les produits agroalimentaires au plus proche des territoires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions sont-elles mises en œuvre pour développer la transformation locale des produits agricole (développement et promotion des ateliers de transformation, au sein des exploitations, collectifs ou au sein des établissements de formation ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un soutien éco-socio-conditionnalisé (RSE) à destination du secteur agro-alimentaire existe-t-il sur le territoire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions sont-elles mises en œuvre pour soutenir et encourager les circuits cours locaux (agriculture, artisanat, commerce) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 Rendre accessibles à toutes et tous des produits sains, locaux et de qualité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La restauration collective publique privilégie-t-elle des produits sains, de qualité et issus de circuits locaux ou de proximité ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des initiatives solidaires sont-elles mises en place pour promouvoir les produits sains locaux et de qualité pour tous?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Innover pour une économie responsable et durable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 Accélérer les transitions au service de la compétitivité économique et de l’emploi</t>
+    <t>Des pratiques agricoles sont-elles mises en place pour stocker du carbone ou produire de l’énergie décarbonée (maintien de prairie, infrastructures agroécologiques, méthanisation, production d’énergies renouvelables) ?</t>
+  </si>
+  <si>
+    <t>Des initiatives sont-elles portées et soutenues pour améliorer la qualité de vie, la reconnaissance du métier d’agriculteur ? (aide à la transmission des exploitations, égalité femme/homme, travail sur les conditions de travail, le bien-être et la valorisation) ?</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>3.2 Transformer les produits agroalimentaires au plus proche des territoires</t>
+  </si>
+  <si>
+    <t>Des actions sont-elles mises en œuvre pour développer la transformation locale des produits agricole (développement et promotion des ateliers de transformation, au sein des exploitations, collectifs ou au sein des établissements de formation ?)</t>
+  </si>
+  <si>
+    <t>Un soutien éco-socio-conditionnalisé (RSE) à destination du secteur agro-alimentaire existe-t-il sur le territoire ?</t>
+  </si>
+  <si>
+    <t>Des actions sont-elles mises en œuvre pour soutenir et encourager les circuits cours locaux (agriculture, artisanat, commerce) ?</t>
+  </si>
+  <si>
+    <t>3.3 Rendre accessibles à toutes et tous des produits sains, locaux et de qualité</t>
+  </si>
+  <si>
+    <t>La restauration collective publique privilégie-t-elle des produits sains, de qualité et issus de circuits locaux ou de proximité ?</t>
+  </si>
+  <si>
+    <t>Des initiatives solidaires sont-elles mises en place pour promouvoir les produits sains locaux et de qualité pour tous?</t>
+  </si>
+  <si>
+    <t>4. Innover pour une économie responsable et durable</t>
+  </si>
+  <si>
+    <t>4.1 Accélérer les transitions au service de la compétitivité économique et de l’emploi</t>
   </si>
   <si>
     <t xml:space="preserve">Le territoire encourage t-il les entreprises à réduire et décarboner leurs consommations énergétiques ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Les transitions indispensables pour la planète s’effectueront aussi via le développement d’un modèle de production sobre, en continuant les efforts déjà engagés par le secteur industriel notamment en terme de réduction de consommation énergétique. En accompagnant les entreprises et les filières dans leur transition, en soutenant la recherche et le développement ou l’innovation sociale, en replaçant l’humain au cœur des nouveaux modèles, l’économie néo-aquitaine pourra évoluer vers plus de responsabilité et de durabilité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe-t-il au sein du territoire des dispositifs visant à limiter les emballages et les plastiques ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les nouvelles filières de réemploi et de recyclage sont-elles structurées au sein du territoire (matériaux du bâtiment, d’aides médicales et techniques, ou de produits de consommation) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions sont-elles proposées ou soutenues pour favoriser la sobriété et l’usage responsable du numérique ?</t>
+    <t>Les transitions indispensables pour la planète s’effectueront aussi via le développement d’un modèle de production sobre, en continuant les efforts déjà engagés par le secteur industriel notamment en terme de réduction de consommation énergétique. En accompagnant les entreprises et les filières dans leur transition, en soutenant la recherche et le développement ou l’innovation sociale, en replaçant l’humain au cœur des nouveaux modèles, l’économie néo-aquitaine pourra évoluer vers plus de responsabilité et de durabilité.</t>
+  </si>
+  <si>
+    <t>Existe-t-il au sein du territoire des dispositifs visant à limiter les emballages et les plastiques ?</t>
+  </si>
+  <si>
+    <t>Les nouvelles filières de réemploi et de recyclage sont-elles structurées au sein du territoire (matériaux du bâtiment, d’aides médicales et techniques, ou de produits de consommation) ?</t>
+  </si>
+  <si>
+    <t>Des actions sont-elles proposées ou soutenues pour favoriser la sobriété et l’usage responsable du numérique ?</t>
   </si>
   <si>
     <t xml:space="preserve">Les entreprises et organisation du territoires mettent-elles en place des pratiques d’achat responsables ? (Analyse cycle du vie, marché locaux, circuits courts) </t>
@@ -288,152 +295,138 @@
     <t xml:space="preserve">Le territoire favorise-t-il le report modal du transport et la logistique vers le fer, le fleuve et le maritime ? </t>
   </si>
   <si>
-    <t xml:space="preserve">4.2 Renforcer notre souveraineté par l’innovation à impact</t>
+    <t>4.2 Renforcer notre souveraineté par l’innovation à impact</t>
   </si>
   <si>
     <t xml:space="preserve">Le territoire met-il en place des dispositifs pour faire évoluer la formation, l’orientation et les métiers afin de renforcer l’attractivité et la durabilité des filières économiques ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Existe-t-il des initiatives visant à favoriser ou développer la recherche ou l’innovation technologique et non-technologique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 Placer l’humain et l’équilibre des territoires au cœur du développement économique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des démarches existent-elles pour favoriser et soutenir l’économie sociale et solidaire et l’innovation sociale ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Se déplacer et habiter dans des territoires adaptés au changement climatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1 Conduire la mutation des transports et l’essor du ferroviaire</t>
+    <t>Existe-t-il des initiatives visant à favoriser ou développer la recherche ou l’innovation technologique et non-technologique ?</t>
+  </si>
+  <si>
+    <t>4.3 Placer l’humain et l’équilibre des territoires au cœur du développement économique</t>
+  </si>
+  <si>
+    <t>Des démarches existent-elles pour favoriser et soutenir l’économie sociale et solidaire et l’innovation sociale ?</t>
+  </si>
+  <si>
+    <t>5. Se déplacer et habiter dans des territoires adaptés au changement climatique</t>
+  </si>
+  <si>
+    <t>5.1 Conduire la mutation des transports et l’essor du ferroviaire</t>
   </si>
   <si>
     <t xml:space="preserve">Des mesures sont-elles mises en place pour décarboner les transports locaux (bus scolaires, transports en commun…) ? </t>
   </si>
   <si>
-    <t xml:space="preserve">La mobilité des voyageurs et des marchandises représente 38% des émissions de gaz à effet de serre en Nouvelle-Aquitaine. C’est ainsi le secteur d’activité le plus impactant pour le climat dans la région. 
+    <t>La mobilité des voyageurs et des marchandises représente 38% des émissions de gaz à effet de serre en Nouvelle-Aquitaine. C’est ainsi le secteur d’activité le plus impactant pour le climat dans la région. 
 Pourtant, se déplacer est un besoin : pour travailler, pour apprendre, pour consommer (16 % des émissions sont liées aux transports de marchandises). La mobilité reste donc l’une des affaires de notre siècle et il est urgent de penser autrement nos déplacements.
 La présence d’infrastructures adaptées est indispensable. Il est également indispensable de garantir un service public fiable, rapide et efficace et une offre de transport qui réponde aux besoins, des zones urbaines ou des zones rurales, par des prix attractifs et adaptés au public.
 La priorité va aux transports collectifs, chaque fois qu’ils sont pertinents, en soignant particulièrement l’intermodalité : train, car, covoiturage, vélos…</t>
   </si>
   <si>
-    <t xml:space="preserve">Des solutions d’intermodalité sont-elles proposées (parking relais, vélo-train, bus-navettes) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des mesures sont-elles mises en œuvre pour encourager le recours aux transports collectifs et ferroviaires été mis en œuvre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des services de mobilité propre et solidaire sont-ils proposés ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 Promouvoir la transition de l’habitat pour tous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire soutient-il la rénovation énergétique des logements et bâtiments publics ou privés ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les projets urbains intègrent -ils la biodiversité et les espaces verts ?</t>
+    <t>Des solutions d’intermodalité sont-elles proposées (parking relais, vélo-train, bus-navettes) ?</t>
+  </si>
+  <si>
+    <t>Des mesures sont-elles mises en œuvre pour encourager le recours aux transports collectifs et ferroviaires été mis en œuvre ?</t>
+  </si>
+  <si>
+    <t>Des services de mobilité propre et solidaire sont-ils proposés ?</t>
+  </si>
+  <si>
+    <t>5.2 Promouvoir la transition de l’habitat pour tous</t>
+  </si>
+  <si>
+    <t>Le territoire soutient-il la rénovation énergétique des logements et bâtiments publics ou privés ?</t>
+  </si>
+  <si>
+    <t>Les projets urbains intègrent -ils la biodiversité et les espaces verts ?</t>
   </si>
   <si>
     <t xml:space="preserve">Des actions sont-elles mises en œuvre pour revitaliser les centres-bourgs des centralités rurales ? </t>
   </si>
   <si>
-    <t xml:space="preserve">5.3 Accompagner des territoires équilibrés et résilients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les documents d’urbanisme prennent-ils bien en compte les risques liés au changement climatique et aux aléas naturels ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des solutions fondées sur la nature sont-elles utilisées pour protéger les populations des aléas naturels (érosion marine, submersions, inondations…) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les habitants et acteurs locaux sont-ils sensibilisés à la gestion des risques et à la résilience ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Prévenir et soigner : une approche unifiée de la santé des écosystèmes (humaines, animale, végétale)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1 Préserver les environnements et le vivant comme condition de la bonne santé de chacun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions locales sont-elles mises en œuvre pour réduire la pollution des eaux et sensibiliser autour de ces problématiques (pesticides, perturbateurs endocriniens, résidus médicaments ou cosmétiques…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une approche globale et transversale de toutes les santés, en lien intime avec les activités humaines et la préservation de l’environnement, est indispensable. Elle est la condition d’une bonne santé pour chacun et passe par l’engagement des filières économiques et le développement de nouvelles méthodes préventives, diagnostiques et thérapeutiques. Pour anticiper les menaces sanitaires, il s’agit aussi de mieux comprendre, sensibiliser et former.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions locales sont-elles mises en œuvre pour éviter / réduire les risques liés à la pollution de l’air intérieur et extérieur (allergènes, trafic, aération…)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des initiatives locales visent-elles à lutter contre les îlots de chaleur ou développer des îlots de fraîcheur ?</t>
+    <t>5.3 Accompagner des territoires équilibrés et résilients</t>
+  </si>
+  <si>
+    <t>Les documents d’urbanisme prennent-ils bien en compte les risques liés au changement climatique et aux aléas naturels ?</t>
+  </si>
+  <si>
+    <t>Des solutions fondées sur la nature sont-elles utilisées pour protéger les populations des aléas naturels (érosion marine, submersions, inondations…) ?</t>
+  </si>
+  <si>
+    <t>Les habitants et acteurs locaux sont-ils sensibilisés à la gestion des risques et à la résilience ?</t>
+  </si>
+  <si>
+    <t>6. Prévenir et soigner : une approche unifiée de la santé des écosystèmes (humaines, animale, végétale)</t>
+  </si>
+  <si>
+    <t>6.1 Préserver les environnements et le vivant comme condition de la bonne santé de chacun</t>
+  </si>
+  <si>
+    <t>Des actions locales sont-elles mises en œuvre pour réduire la pollution des eaux et sensibiliser autour de ces problématiques (pesticides, perturbateurs endocriniens, résidus médicaments ou cosmétiques…)</t>
+  </si>
+  <si>
+    <t>Une approche globale et transversale de toutes les santés, en lien intime avec les activités humaines et la préservation de l’environnement, est indispensable. Elle est la condition d’une bonne santé pour chacun et passe par l’engagement des filières économiques et le développement de nouvelles méthodes préventives, diagnostiques et thérapeutiques. Pour anticiper les menaces sanitaires, il s’agit aussi de mieux comprendre, sensibiliser et former.</t>
+  </si>
+  <si>
+    <t>Des actions locales sont-elles mises en œuvre pour éviter / réduire les risques liés à la pollution de l’air intérieur et extérieur (allergènes, trafic, aération…)?</t>
+  </si>
+  <si>
+    <t>Des initiatives locales visent-elles à lutter contre les îlots de chaleur ou développer des îlots de fraîcheur ?</t>
   </si>
   <si>
     <t xml:space="preserve">Le territoire favorise-t-il l’accès pour tous à l’activité physique / sportive pour lutter contre la sédentarité et améliorer la santé ? </t>
   </si>
   <si>
-    <t xml:space="preserve">L’approche « Une seule santé » est-elle prise en compte dans les politiques ou projets territoriaux ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2 S’engager pour une santé durable dans toutes les filières économiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des établissements de santé ou médico-sociaux s’engagent-ils dans des démarches de transition écologique (énergie, déchets, achats) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire soutient-il la création ou le maintien de maisons et centres de santé pluriprofessionnels ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3 Développer de nouvelles méthodes préventives, diagnostiques et thérapeutiques dans les trois santés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le territoire agit-il pour préserver le bien-être animal (élevage, abattoirs, hébergement) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des dispositifs de surveillance sanitaire ou environnementale existent-ils à l’échelle locale (qualité de l’eau, zoonoses, pathologies) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4 Mieux comprendre, sensibiliser et former pour anticiper les menaces sanitaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des actions locales sensibilisent-elles les habitants, scolaires ou étudiants à la santé environnementale ?</t>
+    <t>L’approche « Une seule santé » est-elle prise en compte dans les politiques ou projets territoriaux ?</t>
+  </si>
+  <si>
+    <t>6.2 S’engager pour une santé durable dans toutes les filières économiques</t>
+  </si>
+  <si>
+    <t>Des établissements de santé ou médico-sociaux s’engagent-ils dans des démarches de transition écologique (énergie, déchets, achats) ?</t>
+  </si>
+  <si>
+    <t>Le territoire soutient-il la création ou le maintien de maisons et centres de santé pluriprofessionnels ?</t>
+  </si>
+  <si>
+    <t>6.3 Développer de nouvelles méthodes préventives, diagnostiques et thérapeutiques dans les trois santés</t>
+  </si>
+  <si>
+    <t>Le territoire agit-il pour préserver le bien-être animal (élevage, abattoirs, hébergement) ?</t>
+  </si>
+  <si>
+    <t>Des dispositifs de surveillance sanitaire ou environnementale existent-ils à l’échelle locale (qualité de l’eau, zoonoses, pathologies) ?</t>
+  </si>
+  <si>
+    <t>6.4 Mieux comprendre, sensibiliser et former pour anticiper les menaces sanitaires</t>
+  </si>
+  <si>
+    <t>Des actions locales sensibilisent-elles les habitants, scolaires ou étudiants à la santé environnementale ?</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>Partagez des réalisations/projets en cours ou à venir relatives à cette ambition  [Limité à 200 caractères]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -450,13 +443,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +453,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -475,131 +461,392 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A60"/>
+    <sheetView tabSelected="1" topLeftCell="I58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="63.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="75.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="107.14"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="75.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="107.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +896,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:16" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -679,8 +926,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -706,8 +953,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -729,8 +976,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -752,8 +999,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -779,8 +1026,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -807,8 +1054,8 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -830,8 +1077,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -853,8 +1100,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -880,8 +1127,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -904,38 +1151,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
+      <c r="E12" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="13" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -945,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>19</v>
@@ -953,12 +1191,19 @@
       <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="L13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -968,7 +1213,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>19</v>
@@ -980,8 +1225,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -990,8 +1235,8 @@
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>45</v>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>19</v>
@@ -999,23 +1244,22 @@
       <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>19</v>
@@ -1027,13 +1271,9 @@
       <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    </row>
+    <row r="17" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1043,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>19</v>
@@ -1051,22 +1291,27 @@
       <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="N17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>19</v>
@@ -1074,16 +1319,12 @@
       <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    </row>
+    <row r="19" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1093,7 +1334,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>19</v>
@@ -1101,12 +1342,16 @@
       <c r="I19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1116,7 +1361,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
@@ -1124,16 +1369,12 @@
       <c r="I20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    </row>
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1143,83 +1384,77 @@
         <v>49</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -1234,9 +1469,12 @@
       <c r="L24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="O24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1246,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>19</v>
@@ -1258,8 +1496,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1269,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>19</v>
@@ -1277,25 +1515,26 @@
       <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>63</v>
+      <c r="F27" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
@@ -1307,18 +1546,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>63</v>
+      <c r="F28" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>19</v>
@@ -1330,11 +1569,11 @@
         <v>21</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1344,7 +1583,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>19</v>
@@ -1356,18 +1595,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>19</v>
@@ -1382,72 +1621,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="H33" s="6" t="s">
         <v>19</v>
       </c>
@@ -1458,35 +1693,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1496,7 +1724,7 @@
         <v>71</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>19</v>
@@ -1504,12 +1732,19 @@
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="L35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1519,7 +1754,7 @@
         <v>71</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>19</v>
@@ -1527,16 +1762,12 @@
       <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    </row>
+    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1546,7 +1777,7 @@
         <v>71</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>19</v>
@@ -1554,22 +1785,26 @@
       <c r="I37" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="L37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>19</v>
@@ -1577,23 +1812,22 @@
       <c r="I38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>19</v>
@@ -1606,144 +1840,142 @@
         <v>21</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="1" t="s">
+      <c r="H43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>19</v>
@@ -1754,19 +1986,22 @@
       <c r="K45" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" s="3" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="O45" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>19</v>
@@ -1778,18 +2013,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>19</v>
@@ -1801,18 +2036,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>19</v>
@@ -1824,18 +2059,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>19</v>
@@ -1847,114 +2082,111 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:15" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="true" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="H54" s="6" t="s">
         <v>19</v>
       </c>
@@ -1965,41 +2197,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>99</v>
+      <c r="E55" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" s="3" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>19</v>
@@ -2010,19 +2240,22 @@
       <c r="K56" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" s="3" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="O56" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>19</v>
@@ -2034,18 +2267,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>19</v>
@@ -2057,18 +2290,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>19</v>
@@ -2080,37 +2313,167 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>21</v>
+      <c r="H65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>